--- a/Luban/Config/Datas/Skill/Skill.xlsx
+++ b/Luban/Config/Datas/Skill/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16215" windowHeight="12390"/>
+    <workbookView windowWidth="21585" windowHeight="6885"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>##var</t>
   </si>
@@ -51,13 +51,7 @@
     <t>list,TimeNode</t>
   </si>
   <si>
-    <t>##</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>desc</t>
+    <t>##+</t>
   </si>
   <si>
     <t>TimeElapsed</t>
@@ -66,28 +60,16 @@
     <t>Event</t>
   </si>
   <si>
-    <t>Param</t>
+    <t xml:space="preserve"> Param</t>
   </si>
   <si>
     <t>Skill1</t>
   </si>
   <si>
-    <t>1,1</t>
-  </si>
-  <si>
-    <t>Skill2</t>
-  </si>
-  <si>
-    <t>stage1</t>
-  </si>
-  <si>
-    <t>stage desc1</t>
-  </si>
-  <si>
-    <t>stage2</t>
-  </si>
-  <si>
-    <t>stage desc2</t>
+    <t>TestEvent,1,1</t>
+  </si>
+  <si>
+    <t>TestEvent2,1,true</t>
   </si>
 </sst>
 </file>
@@ -95,10 +77,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -111,7 +93,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,71 +135,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,6 +174,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -224,30 +206,30 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,19 +256,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,163 +436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,6 +447,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -486,32 +531,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,45 +547,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -573,112 +555,130 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,35 +687,17 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -723,9 +705,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1079,19 +1058,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:H9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="6" width="9" style="4"/>
-    <col min="7" max="7" width="12.925" style="4" customWidth="1"/>
-    <col min="8" max="8" width="19.3416666666667" style="4" customWidth="1"/>
-    <col min="9" max="9" width="24.5583333333333" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="4"/>
+    <col min="1" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="12.925" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.3416666666667" style="3" customWidth="1"/>
+    <col min="9" max="9" width="24.5583333333333" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
@@ -1145,19 +1124,17 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="2:9">
@@ -1165,7 +1142,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
@@ -1174,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="7:9">
@@ -1184,58 +1161,10 @@
       <c r="H5" s="3">
         <v>2</v>
       </c>
-      <c r="I5" s="3">
-        <v>2</v>
+      <c r="I5" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="7:9">
-      <c r="G6" s="3">
-        <v>3</v>
-      </c>
-      <c r="H6" s="3">
-        <v>3</v>
-      </c>
-      <c r="I6" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="2:9">
-      <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="7:9">
-      <c r="G8" s="3">
-        <v>2</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" s="3" customFormat="1"/>
-    <row r="10" s="3" customFormat="1"/>
-    <row r="11" s="3" customFormat="1"/>
-    <row r="12" s="3" customFormat="1"/>
-    <row r="13" s="3" customFormat="1"/>
-    <row r="14" s="3" customFormat="1"/>
-    <row r="15" s="3" customFormat="1"/>
-    <row r="16" s="3" customFormat="1"/>
-    <row r="17" s="3" customFormat="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="G1:I1"/>

--- a/Luban/Config/Datas/Skill/Skill.xlsx
+++ b/Luban/Config/Datas/Skill/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21585" windowHeight="6885"/>
+    <workbookView windowWidth="23040" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>##var</t>
   </si>
@@ -27,16 +27,46 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>Buff</t>
-  </si>
-  <si>
-    <t>*TimeLine</t>
+    <t>ReleaseType</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>TargetCfg</t>
+  </si>
+  <si>
+    <t>BulletCfg</t>
+  </si>
+  <si>
+    <t>BuffList</t>
+  </si>
+  <si>
+    <t>CdTime</t>
+  </si>
+  <si>
+    <t>SpellTime</t>
+  </si>
+  <si>
+    <t>SkillTime</t>
+  </si>
+  <si>
+    <t>IsNormalAttack</t>
+  </si>
+  <si>
+    <t>IconName</t>
+  </si>
+  <si>
+    <t>AnimName</t>
+  </si>
+  <si>
+    <t>AudioStart</t>
+  </si>
+  <si>
+    <t>AudioWork</t>
+  </si>
+  <si>
+    <t>AudioHit</t>
   </si>
   <si>
     <t>##type</t>
@@ -48,28 +78,19 @@
     <t>string</t>
   </si>
   <si>
-    <t>list,TimeNode</t>
-  </si>
-  <si>
-    <t>##+</t>
-  </si>
-  <si>
-    <t>TimeElapsed</t>
-  </si>
-  <si>
-    <t>Event</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Param</t>
-  </si>
-  <si>
-    <t>Skill1</t>
-  </si>
-  <si>
-    <t>TestEvent,1,1</t>
-  </si>
-  <si>
-    <t>TestEvent2,1,true</t>
+    <t>list,int</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>亚瑟普攻</t>
+  </si>
+  <si>
+    <t>Click</t>
   </si>
 </sst>
 </file>
@@ -77,10 +98,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -91,16 +112,122 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,122 +241,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,187 +277,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,6 +468,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -465,11 +495,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,6 +521,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,43 +563,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,10 +576,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,133 +588,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,22 +1079,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="12.925" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.3416666666667" style="3" customWidth="1"/>
-    <col min="9" max="9" width="24.5583333333333" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="3"/>
+    <col min="1" max="3" width="9" style="3"/>
+    <col min="4" max="4" width="13.75" style="3" customWidth="1"/>
+    <col min="5" max="7" width="9" style="3"/>
+    <col min="8" max="8" width="11.2416666666667" style="3" customWidth="1"/>
+    <col min="9" max="11" width="9" style="3"/>
+    <col min="12" max="12" width="13.4583333333333" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1095,81 +1118,127 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
+    <row r="2" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="18.75" customHeight="1" spans="1:9">
+    <row r="3" s="3" customFormat="1" ht="18.75" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="2:12">
+      <c r="B4" s="3">
+        <v>100101</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="3">
+        <v>45</v>
+      </c>
+      <c r="F4" s="3">
+        <v>100101</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>800</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1400</v>
+      </c>
+      <c r="L4" s="3" t="b">
         <v>1</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="2:9">
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="7:9">
-      <c r="G5" s="3">
-        <v>2</v>
-      </c>
-      <c r="H5" s="3">
-        <v>2</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Luban/Config/Datas/Skill/Skill.xlsx
+++ b/Luban/Config/Datas/Skill/Skill.xlsx
@@ -1082,7 +1082,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>

--- a/Luban/Config/Datas/Skill/Skill.xlsx
+++ b/Luban/Config/Datas/Skill/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300"/>
+    <workbookView windowWidth="22665" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>##var</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Click</t>
+  </si>
+  <si>
+    <t>atk</t>
   </si>
 </sst>
 </file>
@@ -98,10 +101,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -119,6 +122,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -128,84 +147,84 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,39 +237,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,187 +280,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,26 +474,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,16 +505,42 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,26 +556,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,8 +566,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,10 +579,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,19 +591,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,112 +612,112 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1079,13 +1082,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="3" width="9" style="3"/>
     <col min="4" max="4" width="13.75" style="3" customWidth="1"/>
@@ -1207,7 +1210,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="2:12">
+    <row r="4" s="3" customFormat="1" spans="2:14">
       <c r="B4" s="3">
         <v>100101</v>
       </c>
@@ -1223,8 +1226,6 @@
       <c r="F4" s="3">
         <v>100101</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
       <c r="I4" s="2">
         <v>0</v>
       </c>
@@ -1237,6 +1238,13 @@
       <c r="L4" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="N4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="10:11">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1251,7 +1259,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1268,7 +1276,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Luban/Config/Datas/Skill/Skill.xlsx
+++ b/Luban/Config/Datas/Skill/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22665" windowHeight="11790"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>atk</t>
+  </si>
+  <si>
+    <t>arthur_ska_rls</t>
+  </si>
+  <si>
+    <t>arthur_ska_hit</t>
   </si>
 </sst>
 </file>
@@ -101,9 +107,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -116,74 +122,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,29 +204,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -229,31 +213,53 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,25 +286,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,157 +466,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,6 +477,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -485,6 +506,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,32 +558,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,33 +577,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -579,145 +585,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1084,8 +1090,8 @@
   <sheetPr/>
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1210,7 +1216,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="2:14">
+    <row r="4" s="3" customFormat="1" spans="2:17">
       <c r="B4" s="3">
         <v>100101</v>
       </c>
@@ -1221,11 +1227,14 @@
         <v>24</v>
       </c>
       <c r="E4" s="3">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="F4" s="3">
         <v>100101</v>
       </c>
+      <c r="H4" s="3">
+        <v>100101</v>
+      </c>
       <c r="I4" s="2">
         <v>0</v>
       </c>
@@ -1240,6 +1249,12 @@
       </c>
       <c r="N4" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="10:11">

--- a/Luban/Config/Datas/Skill/Skill.xlsx
+++ b/Luban/Config/Datas/Skill/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="22365" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -87,6 +87,9 @@
     <t>##</t>
   </si>
   <si>
+    <t>100101</t>
+  </si>
+  <si>
     <t>亚瑟普攻</t>
   </si>
   <si>
@@ -100,6 +103,36 @@
   </si>
   <si>
     <t>arthur_ska_hit</t>
+  </si>
+  <si>
+    <t>亚瑟强化普攻</t>
+  </si>
+  <si>
+    <t>sk1_atk</t>
+  </si>
+  <si>
+    <t>arthur_sk1_rls2</t>
+  </si>
+  <si>
+    <t>100103</t>
+  </si>
+  <si>
+    <t>誓约圣盾</t>
+  </si>
+  <si>
+    <t>1001,100101</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>arthur_sk1_rls</t>
   </si>
 </sst>
 </file>
@@ -727,7 +760,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -738,6 +771,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1088,178 +1130,275 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="13.75" style="3" customWidth="1"/>
-    <col min="5" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="11.2416666666667" style="3" customWidth="1"/>
-    <col min="9" max="11" width="9" style="3"/>
-    <col min="12" max="12" width="13.4583333333333" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="3"/>
+    <col min="1" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="13.75" style="4" customWidth="1"/>
+    <col min="5" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="11.2416666666667" style="4" customWidth="1"/>
+    <col min="9" max="11" width="9" style="4"/>
+    <col min="12" max="12" width="13.4583333333333" style="4" customWidth="1"/>
+    <col min="13" max="17" width="9" style="4"/>
+    <col min="18" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="3" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
+      <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
     </row>
-    <row r="4" s="3" customFormat="1" spans="2:17">
-      <c r="B4" s="3">
+    <row r="4" s="3" customFormat="1" spans="1:17">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4">
         <v>100101</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>800</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1400</v>
+      </c>
+      <c r="L4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:17">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4">
+        <v>100102</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3">
-        <v>100101</v>
-      </c>
-      <c r="H4" s="3">
-        <v>100101</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="6">
         <v>0</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J5" s="6">
         <v>800</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K5" s="6">
         <v>1400</v>
       </c>
-      <c r="L4" s="3" t="b">
+      <c r="L5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="M5" s="4"/>
+      <c r="N5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:17">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="10:11">
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
